--- a/medicine/Psychotrope/Hansō_Sōshitsu/Hansō_Sōshitsu.xlsx
+++ b/medicine/Psychotrope/Hansō_Sōshitsu/Hansō_Sōshitsu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hans%C5%8D_S%C5%8Dshitsu</t>
+          <t>Hansō_Sōshitsu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hansō Sōshitsu (汎叟宗室?), plus connu sous le titre Sen Sōshitsu XV (十五代目千宗室?), né le 19 avril 1923, est le 15e grand maître de thé de la famille Urasenke.
-Il est également membre du Comité Représentatif du principal lobby révisionniste, la Nippon Kaigi[1]. 
+Il est également membre du Comité Représentatif du principal lobby révisionniste, la Nippon Kaigi. 
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hans%C5%8D_S%C5%8Dshitsu</t>
+          <t>Hansō_Sōshitsu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Lignée</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sen Sōshitsu est le nom porté par le chef (iemoto) de l'école de la cérémonie du thé Urasenke. 
 La première personne de la famille Sen à utiliser le nom Sōshitsu est le plus jeune fils de Sen Sōtan et l'arrière-petit-fils de Sen no Rikyū.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hans%C5%8D_S%C5%8Dshitsu</t>
+          <t>Hansō_Sōshitsu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Zen et le Thé, éd. Jean-Cyrille Godefroy, 1987  (ISBN 2865530728 et 978-2865530724)</t>
         </is>
